--- a/Traduzido/PTBR/Lang/PTBR/Game/Zone.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Zone.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505E29A9-1B3B-439F-84E8-E5555BCC98B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C335016-01D9-41CB-8C23-18A0504C54B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="468">
   <si>
     <t>id</t>
   </si>
@@ -1291,9 +1291,6 @@
     <t>Ponto de Encontro</t>
   </si>
   <si>
-    <t>Campina</t>
-  </si>
-  <si>
     <t>Floresta</t>
   </si>
   <si>
@@ -1421,6 +1418,15 @@
   </si>
   <si>
     <t>Campo Gramado</t>
+  </si>
+  <si>
+    <t>Sala de Concertos (Shows)</t>
+  </si>
+  <si>
+    <t>Campos de Plantação</t>
+  </si>
+  <si>
+    <t>Ruínas de Máquinas</t>
   </si>
 </sst>
 </file>
@@ -1800,14 +1806,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D75" sqref="D75:D95"/>
+      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="16" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="73.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="76.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="11" width="16" customWidth="1" collapsed="1"/>
@@ -1865,7 +1874,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -1891,7 +1900,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -1951,7 +1960,7 @@
         <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J7" t="s">
         <v>30</v>
@@ -1994,7 +2003,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G9" t="s">
         <v>38</v>
@@ -2071,7 +2080,7 @@
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G13" t="s">
         <v>52</v>
@@ -2097,7 +2106,7 @@
         <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G14" t="s">
         <v>57</v>
@@ -2123,7 +2132,7 @@
         <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G15" t="s">
         <v>62</v>
@@ -2149,7 +2158,7 @@
         <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G16" t="s">
         <v>67</v>
@@ -2192,7 +2201,7 @@
         <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G18" t="s">
         <v>74</v>
@@ -2320,7 +2329,7 @@
         <v>96</v>
       </c>
       <c r="I25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J25" t="s">
         <v>97</v>
@@ -2346,7 +2355,7 @@
         <v>101</v>
       </c>
       <c r="I26" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J26" t="s">
         <v>102</v>
@@ -2372,7 +2381,7 @@
         <v>106</v>
       </c>
       <c r="I27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J27" t="s">
         <v>107</v>
@@ -2432,7 +2441,7 @@
         <v>117</v>
       </c>
       <c r="I30" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J30" t="s">
         <v>118</v>
@@ -2458,7 +2467,7 @@
         <v>122</v>
       </c>
       <c r="I31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J31" t="s">
         <v>123</v>
@@ -2569,7 +2578,7 @@
         <v>142</v>
       </c>
       <c r="I37" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J37" t="s">
         <v>143</v>
@@ -2629,7 +2638,7 @@
         <v>153</v>
       </c>
       <c r="I40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J40" t="s">
         <v>154</v>
@@ -2655,7 +2664,7 @@
         <v>158</v>
       </c>
       <c r="I41" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J41" t="s">
         <v>159</v>
@@ -2681,7 +2690,7 @@
         <v>163</v>
       </c>
       <c r="I42" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J42" t="s">
         <v>164</v>
@@ -2707,7 +2716,7 @@
         <v>168</v>
       </c>
       <c r="I43" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J43" t="s">
         <v>169</v>
@@ -2733,7 +2742,7 @@
         <v>173</v>
       </c>
       <c r="I44" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J44" t="s">
         <v>174</v>
@@ -2759,7 +2768,7 @@
         <v>178</v>
       </c>
       <c r="I45" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J45" t="s">
         <v>179</v>
@@ -2785,7 +2794,7 @@
         <v>183</v>
       </c>
       <c r="I46" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J46" t="s">
         <v>184</v>
@@ -2811,7 +2820,7 @@
         <v>188</v>
       </c>
       <c r="I47" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J47" t="s">
         <v>189</v>
@@ -2837,7 +2846,7 @@
         <v>193</v>
       </c>
       <c r="I48" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J48" t="s">
         <v>194</v>
@@ -2863,7 +2872,7 @@
         <v>198</v>
       </c>
       <c r="I49" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J49" t="s">
         <v>199</v>
@@ -2906,7 +2915,7 @@
         <v>206</v>
       </c>
       <c r="I51" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J51" t="s">
         <v>207</v>
@@ -2966,7 +2975,7 @@
         <v>217</v>
       </c>
       <c r="I54" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J54" t="s">
         <v>218</v>
@@ -3094,7 +3103,7 @@
         <v>240</v>
       </c>
       <c r="I61" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J61" t="s">
         <v>241</v>
@@ -3120,7 +3129,7 @@
         <v>245</v>
       </c>
       <c r="I62" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J62" t="s">
         <v>246</v>
@@ -3180,7 +3189,7 @@
         <v>256</v>
       </c>
       <c r="I65" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J65" t="s">
         <v>257</v>
@@ -3206,7 +3215,7 @@
         <v>261</v>
       </c>
       <c r="I66" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J66" t="s">
         <v>262</v>
@@ -3232,7 +3241,7 @@
         <v>266</v>
       </c>
       <c r="I67" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J67" t="s">
         <v>267</v>
@@ -3275,7 +3284,7 @@
         <v>274</v>
       </c>
       <c r="I69" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J69" t="s">
         <v>275</v>
@@ -3301,7 +3310,7 @@
         <v>279</v>
       </c>
       <c r="I70" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J70" t="s">
         <v>280</v>
@@ -3344,7 +3353,7 @@
         <v>285</v>
       </c>
       <c r="I72" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J72" t="s">
         <v>286</v>
@@ -3404,7 +3413,7 @@
         <v>295</v>
       </c>
       <c r="I75" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J75" t="s">
         <v>296</v>
@@ -3591,7 +3600,7 @@
         <v>344</v>
       </c>
       <c r="C86" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="D86" t="s">
         <v>419</v>
@@ -3642,10 +3651,10 @@
         <v>354</v>
       </c>
       <c r="C89" t="s">
-        <v>422</v>
+        <v>466</v>
       </c>
       <c r="D89" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E89" t="s">
         <v>323</v>
@@ -3659,10 +3668,10 @@
         <v>347</v>
       </c>
       <c r="C90" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D90" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E90" t="s">
         <v>325</v>
@@ -3676,10 +3685,10 @@
         <v>347</v>
       </c>
       <c r="C91" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D91" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E91" t="s">
         <v>327</v>
@@ -3693,7 +3702,7 @@
         <v>355</v>
       </c>
       <c r="C92" t="s">
-        <v>329</v>
+        <v>467</v>
       </c>
       <c r="D92" t="s">
         <v>329</v>
@@ -3710,10 +3719,10 @@
         <v>338</v>
       </c>
       <c r="C93" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D93" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E93" t="s">
         <v>332</v>
@@ -3727,10 +3736,10 @@
         <v>356</v>
       </c>
       <c r="C94" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D94" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E94" t="s">
         <v>313</v>
@@ -3744,16 +3753,16 @@
         <v>357</v>
       </c>
       <c r="C95" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D95" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E95" t="s">
         <v>335</v>
       </c>
       <c r="I95" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J95" t="s">
         <v>336</v>
